--- a/biology/Botanique/Hong_Kong_(rose)/Hong_Kong_(rose).xlsx
+++ b/biology/Botanique/Hong_Kong_(rose)/Hong_Kong_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Hong Kong' est un cultivar de rosier hybride de thé obtenu en Espagne par le rosiériste Pedro Dot en 1962[1],[2]. Il doit son nom à la ville de Hong Kong.
+'Hong Kong' est un cultivar de rosier hybride de thé obtenu en Espagne par le rosiériste Pedro Dot en 1962,. Il doit son nom à la ville de Hong Kong.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Hong-Kong' est une rose moderne hybride de thé[3], issue de semis 'Soraya' et de pollen 'Henri Mallerin' x 'Madame Antoine Meilland'. L'arbuste s'élève jusqu'à 90 cm de hauteur avec un feuillage vert clair et brillant[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Hong-Kong' est une rose moderne hybride de thé, issue de semis 'Soraya' et de pollen 'Henri Mallerin' x 'Madame Antoine Meilland'. L'arbuste s'élève jusqu'à 90 cm de hauteur avec un feuillage vert clair et brillant. 
 Pedro Dot se passionnait pour l'obtention de roses bicolores et celle-ci en est un exemple fameux. Ses fleurs délicates sont de couleur jaune aux bords rouge écarlate, grandes avec trente pétales en forme de coupe. 
-Elle craint les hivers trop froids (zone de rusticité 7 à 8) et son pied a alors besoin d'être protégé[1]. Elle s'épanouit au soleil. Elle est idéale pour les plates-bandes du jardin et les fleurs à couper des fleuristes. 
+Elle craint les hivers trop froids (zone de rusticité 7 à 8) et son pied a alors besoin d'être protégé. Elle s'épanouit au soleil. Elle est idéale pour les plates-bandes du jardin et les fleurs à couper des fleuristes. 
 </t>
         </is>
       </c>
